--- a/RageVaders/Assets/Editor/EditorResources/Dictionary.xlsx
+++ b/RageVaders/Assets/Editor/EditorResources/Dictionary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>Tag</t>
   </si>
@@ -20,6 +20,33 @@
   </si>
   <si>
     <t>Polish</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Wave {0}</t>
+  </si>
+  <si>
+    <t>Fala {0}</t>
+  </si>
+  <si>
+    <t>POINTS</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Punkty</t>
+  </si>
+  <si>
+    <t>PLAY</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Graj</t>
   </si>
   <si>
     <t>EXIT</t>
@@ -241,6 +268,15 @@
   </si>
   <si>
     <t>Prosimy rozważ zabezpieczenie swojego konta</t>
+  </si>
+  <si>
+    <t>GAME_OVER</t>
+  </si>
+  <si>
+    <t>Game Over</t>
+  </si>
+  <si>
+    <t>Przegrałeś</t>
   </si>
   <si>
     <t>-</t>
@@ -280,15 +316,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -523,35 +565,35 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -574,37 +616,37 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
@@ -633,199 +675,243 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>66</v>
+      <c r="C23" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>76</v>
+      <c r="B27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
